--- a/Data/Profiles.xlsx
+++ b/Data/Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/ana_popovic_uts_edu_au/Documents/R_Projects/Dynamic-Network-Visualisation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="11_4D2BCA6A1F9AF7382A90E5599C45AC1A14F31C63" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39C88E38-CFAA-4382-8A6D-2A5D23C13A2F}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="11_4D2BCA6A1F9AF7382A90E5599C45AC1A14F31C63" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3A34DB7-DDDF-4F16-B398-6AE7B2CA6537}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="2" r:id="rId1"/>
@@ -3314,7 +3314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
@@ -18337,8 +18337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K435"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N431" sqref="N431"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N399" sqref="N399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32194,7 +32194,7 @@
         <v>0.12051221918510399</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>7.4668211576803589E-2</v>
       </c>
       <c r="I396">
         <v>0.1484634795060108</v>
@@ -32229,7 +32229,7 @@
         <v>0.10617045308278936</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>0.15588855869626991</v>
       </c>
       <c r="I397">
         <v>0.17760617531901701</v>
@@ -32299,7 +32299,7 @@
         <v>0.16386218792173354</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>0.16911270352975344</v>
       </c>
       <c r="I399">
         <v>0</v>
@@ -32404,7 +32404,7 @@
         <v>0</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>0.36844228655694833</v>
       </c>
       <c r="I402">
         <v>0</v>
@@ -32439,7 +32439,7 @@
         <v>0</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>0.27462642948512189</v>
       </c>
       <c r="I403">
         <v>0.48461621618398809</v>
@@ -44268,15 +44268,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F9F3F5365A3FDE4482CC94C95595C9BA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5153336dd60064f828c223e5de11e52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1b7bf358-0949-41bf-a80b-9d228e92562d" xmlns:ns4="f33b62f9-502f-4530-b549-618482849aa6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="07d5fe8109406321ca5c833f7918e7f3" ns3:_="" ns4:_="">
     <xsd:import namespace="1b7bf358-0949-41bf-a80b-9d228e92562d"/>
@@ -44499,6 +44490,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -44506,14 +44506,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74081C4C-2EEF-42D2-AEBF-47FEC0B1B63D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F97F1473-95B0-4536-AE76-43F89FA71B14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44528,6 +44520,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74081C4C-2EEF-42D2-AEBF-47FEC0B1B63D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
